--- a/data/input/matches.xlsx
+++ b/data/input/matches.xlsx
@@ -219,7 +219,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -458,6 +458,12 @@
       <c r="C14" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -469,6 +475,12 @@
       <c r="C15" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -479,6 +491,12 @@
       </c>
       <c r="C16" s="0" t="s">
         <v>9</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/input/matches.xlsx
+++ b/data/input/matches.xlsx
@@ -219,7 +219,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -509,6 +509,12 @@
       <c r="C17" s="0" t="s">
         <v>17</v>
       </c>
+      <c r="D17" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -520,6 +526,12 @@
       <c r="C18" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="D18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -530,6 +542,12 @@
       </c>
       <c r="C19" s="0" t="s">
         <v>16</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/input/matches.xlsx
+++ b/data/input/matches.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="34">
   <si>
     <t xml:space="preserve">Stage</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
   </si>
 </sst>
 </file>
@@ -216,10 +228,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -560,6 +572,12 @@
       <c r="C20" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -571,6 +589,12 @@
       <c r="C21" s="0" t="s">
         <v>21</v>
       </c>
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -582,6 +606,12 @@
       <c r="C22" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -593,6 +623,12 @@
       <c r="C23" s="0" t="s">
         <v>28</v>
       </c>
+      <c r="D23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -604,6 +640,12 @@
       <c r="C24" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="D24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -615,6 +657,12 @@
       <c r="C25" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="D25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -626,6 +674,12 @@
       <c r="C26" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="D26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -637,6 +691,12 @@
       <c r="C27" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="D27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -746,6 +806,81 @@
       </c>
       <c r="C37" s="0" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/matches.xlsx
+++ b/data/input/matches.xlsx
@@ -231,7 +231,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
+      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -708,6 +708,12 @@
       <c r="C28" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="D28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -719,6 +725,12 @@
       <c r="C29" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="D29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -730,6 +742,12 @@
       <c r="C30" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="D30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -740,6 +758,12 @@
       </c>
       <c r="C31" s="0" t="s">
         <v>10</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/input/matches.xlsx
+++ b/data/input/matches.xlsx
@@ -230,8 +230,8 @@
   </sheetPr>
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -776,6 +776,12 @@
       <c r="C32" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -787,6 +793,12 @@
       <c r="C33" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="D33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -798,6 +810,12 @@
       <c r="C34" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="D34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -809,6 +827,12 @@
       <c r="C35" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="D35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -820,6 +844,12 @@
       <c r="C36" s="0" t="s">
         <v>26</v>
       </c>
+      <c r="D36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -831,8 +861,14 @@
       <c r="C37" s="0" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>30</v>
       </c>

--- a/data/input/matches.xlsx
+++ b/data/input/matches.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="34">
   <si>
     <t xml:space="preserve">Stage</t>
   </si>
@@ -230,8 +230,8 @@
   </sheetPr>
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E37" activeCellId="0" sqref="E37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -872,40 +872,88 @@
       <c r="A38" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="B38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="B39" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="B40" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="B41" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="B42" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="B43" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="B44" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>30</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/data/input/matches.xlsx
+++ b/data/input/matches.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="34">
   <si>
     <t xml:space="preserve">Stage</t>
   </si>
@@ -230,8 +230,8 @@
   </sheetPr>
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E45" activeCellId="0" sqref="E45"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D52" activeCellId="0" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -878,6 +878,12 @@
       <c r="C38" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="D38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -889,6 +895,12 @@
       <c r="C39" s="0" t="s">
         <v>16</v>
       </c>
+      <c r="D39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -900,6 +912,12 @@
       <c r="C40" s="0" t="s">
         <v>21</v>
       </c>
+      <c r="D40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -911,6 +929,12 @@
       <c r="C41" s="0" t="s">
         <v>27</v>
       </c>
+      <c r="D41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -922,6 +946,12 @@
       <c r="C42" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="D42" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -933,6 +963,12 @@
       <c r="C43" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="D43" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -944,6 +980,12 @@
       <c r="C44" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="D44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -955,40 +997,130 @@
       <c r="C45" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="D45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="B46" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="B47" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="B48" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="B49" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>32</v>
       </c>
+      <c r="B50" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>32</v>
       </c>
+      <c r="B51" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>33</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
